--- a/testRun.xlsx
+++ b/testRun.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/testCase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21860"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="授权" sheetId="1" r:id="rId1"/>
@@ -149,8 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -259,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -294,7 +289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -502,23 +497,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -558,7 +553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -567,7 +562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -579,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -591,7 +586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -606,7 +601,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -618,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -633,7 +628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -648,7 +643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -660,7 +655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -672,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -687,7 +682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>20</v>
@@ -699,7 +694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -712,9 +707,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A14"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
